--- a/Manufacturing_files/general.xlsx
+++ b/Manufacturing_files/general.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t>Reference</t>
   </si>
@@ -24,7 +24,10 @@
     <t xml:space="preserve">Total Qtity</t>
   </si>
   <si>
-    <t>Stock</t>
+    <t xml:space="preserve">Stock/To buy</t>
+  </si>
+  <si>
+    <t>Spare</t>
   </si>
   <si>
     <t xml:space="preserve"> Value</t>
@@ -87,6 +90,9 @@
     <t xml:space="preserve">C_2snub1 C_1snub1 C_1snub2 C_2snub2 </t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>C_Small</t>
   </si>
   <si>
@@ -198,10 +204,13 @@
     <t xml:space="preserve">R_GH4 R_GH3 R_GH5 R_GH6 </t>
   </si>
   <si>
+    <t>0ohm</t>
+  </si>
+  <si>
     <t xml:space="preserve">R_GL1 R_GH1 R_GH2 R_GL2 </t>
   </si>
   <si>
-    <t>2,2</t>
+    <t>2,2ohm</t>
   </si>
   <si>
     <t xml:space="preserve">R_pdL1 R_pdH2 R_pdL2 R_pdH1 </t>
@@ -225,6 +234,9 @@
     <t xml:space="preserve">Rv4 Rv2 </t>
   </si>
   <si>
+    <t>470ohm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rv5 </t>
   </si>
   <si>
@@ -366,6 +378,9 @@
     <t xml:space="preserve">R17 R16 R19 R18 R21 R20 R28 R27 R30 R29 </t>
   </si>
   <si>
+    <t>12ohm</t>
+  </si>
+  <si>
     <t xml:space="preserve">R33 </t>
   </si>
   <si>
@@ -504,6 +519,9 @@
     <t xml:space="preserve">R1 R2 R4 R6 R7 </t>
   </si>
   <si>
+    <t>51ohm</t>
+  </si>
+  <si>
     <t xml:space="preserve">R5 </t>
   </si>
   <si>
@@ -541,16 +559,73 @@
   </si>
   <si>
     <t>http://www.ti.com/lit/ds/symlink/ucc21222.pdf</t>
+  </si>
+  <si>
+    <t>Passives</t>
+  </si>
+  <si>
+    <t>50V</t>
+  </si>
+  <si>
+    <t>CMS0805</t>
+  </si>
+  <si>
+    <t>25V</t>
+  </si>
+  <si>
+    <t>100V</t>
+  </si>
+  <si>
+    <t>250V</t>
+  </si>
+  <si>
+    <t>CMS1210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">couche épaisse</t>
+  </si>
+  <si>
+    <t>2.2ohm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">couche mince</t>
+  </si>
+  <si>
+    <t>measure</t>
+  </si>
+  <si>
+    <t>Headers</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>PinSocket</t>
+  </si>
+  <si>
+    <t>PinHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longueur standard</t>
+  </si>
+  <si>
+    <t>20mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -568,12 +643,18 @@
       <u val="single"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -585,22 +666,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -948,8 +1028,12 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill/>
-        <a:solidFill/>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525">
@@ -1004,7 +1088,9 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill/>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
         <a:solidFill/>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1024,11 +1110,11 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="25.421875"/>
     <col customWidth="1" min="2" max="3" width="12.57421875"/>
-    <col customWidth="1" min="4" max="4" width="13.421875"/>
-    <col customWidth="1" min="5" max="5" width="41.421875"/>
-    <col min="6" max="8" width="9.140625"/>
-    <col customWidth="1" min="9" max="9" width="69.57421875"/>
-    <col min="10" max="16384" width="9.140625"/>
+    <col customWidth="1" min="4" max="5" width="13.421875"/>
+    <col customWidth="1" min="6" max="6" width="41.421875"/>
+    <col min="7" max="9" width="9.140625"/>
+    <col customWidth="1" min="10" max="10" width="69.57421875"/>
+    <col min="11" max="16384" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1038,7 +1124,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1050,1755 +1136,2599 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
-        <f>3*B2</f>
+      <c r="C2" s="2">
+        <f t="shared" ref="C2:C9" si="0">3*B2</f>
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <f>F2*C2</f>
+      <c r="D2">
+        <f>B71</f>
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <f>D2-C2</f>
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <f>G2*C2</f>
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>18</v>
       </c>
-      <c r="C3" s="3">
-        <f>3*B3</f>
+      <c r="C3" s="2">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="D3">
         <v>60</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="2">
+        <f>D3-C3</f>
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
         <v>0.98999999999999999</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H3" s="3">
-        <f>F3*D3</f>
+      <c r="I3" s="2">
+        <f>G3*D3</f>
         <v>59.399999999999999</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
-        <f>3*B4</f>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" t="s">
-        <v>14</v>
+      <c r="D4">
+        <f>B70</f>
+        <v>100</v>
+      </c>
+      <c r="E4" s="2">
+        <f>D4-C4</f>
+        <v>91</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="3">
-        <f>3*B5</f>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="D5">
+        <f>B68</f>
         <v>20</v>
       </c>
-      <c r="O5" t="s">
-        <v>14</v>
+      <c r="E5" s="2">
+        <f>D5-C5</f>
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="3">
-        <f>3*B6</f>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" t="s">
-        <v>14</v>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="e">
+        <f>D6-C6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="3">
-        <f>3*B7</f>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D7">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="2">
+        <f>D7-C7</f>
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7">
         <v>0.17999999999999999</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.059999999999999998</v>
       </c>
-      <c r="H7" s="3">
-        <f>F7*D7</f>
+      <c r="I7" s="2">
+        <f>G7*D7</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="J7" s="4" t="s">
         <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
-        <f>3*B8</f>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D8">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="2">
+        <f>D8-C8</f>
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8">
         <v>0.70999999999999996</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.33000000000000002</v>
       </c>
-      <c r="H8" s="3">
-        <f>F8*D8</f>
+      <c r="I8" s="2">
+        <f>G8*D8</f>
         <v>14.199999999999999</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="J8" s="4" t="s">
         <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" s="3">
-        <f>3*B9</f>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D9">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="2">
+        <f>D9-C9</f>
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9">
         <v>0.79000000000000004</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.47999999999999998</v>
       </c>
-      <c r="H9" s="3">
-        <f>F9*D9</f>
+      <c r="I9" s="2">
+        <f>G9*D9</f>
         <v>15.800000000000001</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="J9" s="4" t="s">
         <v>39</v>
+      </c>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10" s="3">
-        <f>3*B10</f>
+      <c r="C10" s="2">
+        <f t="shared" ref="C10:C60" si="1">3*B10</f>
         <v>12</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="2">
+        <f>D10-C10</f>
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10">
         <v>2.0800000000000001</v>
       </c>
-      <c r="H10" s="3">
-        <f>F10*D10</f>
+      <c r="I10" s="2">
+        <f>G10*D10</f>
         <v>41.600000000000001</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" t="s">
-        <v>43</v>
+      <c r="J10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
-        <f>3*B11</f>
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D11">
         <v>6</v>
       </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="2">
+        <f>D11-C11</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11">
         <v>5.8700000000000001</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>3.8399999999999999</v>
       </c>
-      <c r="H11" s="3">
-        <f>F11*D11</f>
+      <c r="I11" s="2">
+        <f>G11*D11</f>
         <v>35.219999999999999</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" t="s">
-        <v>47</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="J11" s="4" t="s">
         <v>48</v>
+      </c>
+      <c r="K11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" s="3">
-        <f>3*B12</f>
+      <c r="C12" s="2">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="2">
+        <f>D12-C12</f>
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12">
         <v>1.1699999999999999</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.59999999999999998</v>
       </c>
-      <c r="H12" s="3">
-        <f>F12*D12</f>
+      <c r="I12" s="2">
+        <f>G12*D12</f>
         <v>23.399999999999999</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" t="s">
-        <v>52</v>
+      <c r="J12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="3">
-        <f>3*B13</f>
+      <c r="C13" s="2">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
-      <c r="E13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="2">
+        <f>D13-C13</f>
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13">
         <v>1.3100000000000001</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="2">
         <v>0.59999999999999998</v>
       </c>
-      <c r="H13">
-        <f>F13*D13</f>
+      <c r="I13">
+        <f>G13*D13</f>
         <v>5.2400000000000002</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" t="s">
-        <v>33</v>
-      </c>
-      <c r="O13" t="s">
-        <v>56</v>
+      <c r="J13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
-      <c r="C14" s="3">
-        <f>3*B14</f>
+      <c r="C14" s="2">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" t="s">
-        <v>59</v>
-      </c>
-      <c r="O14" t="s">
-        <v>14</v>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="e">
+        <f>D14-C14</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
-      <c r="C15" s="3">
-        <f>3*B15</f>
+      <c r="C15" s="2">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>59</v>
-      </c>
-      <c r="O15" t="s">
-        <v>14</v>
+      <c r="D15">
+        <f>B76</f>
+        <v>30</v>
+      </c>
+      <c r="E15" s="2">
+        <f>D15-C15</f>
+        <v>18</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
-      <c r="C16" s="3">
-        <f>3*B16</f>
+      <c r="C16" s="2">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" t="s">
-        <v>59</v>
-      </c>
-      <c r="O16" t="s">
-        <v>14</v>
+      <c r="D16">
+        <f>B77</f>
+        <v>30</v>
+      </c>
+      <c r="E16" s="2">
+        <f>D16-C16</f>
+        <v>18</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="3">
-        <f>3*B17</f>
+      <c r="C17" s="2">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E17" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" t="s">
-        <v>59</v>
-      </c>
-      <c r="O17" t="s">
-        <v>14</v>
+      <c r="D17">
+        <f>B83</f>
+        <v>30</v>
+      </c>
+      <c r="E17" s="2">
+        <f>D17-C17</f>
+        <v>18</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" s="3">
-        <f>3*B18</f>
+      <c r="C18" s="2">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E18" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" t="s">
-        <v>59</v>
-      </c>
-      <c r="O18" t="s">
-        <v>14</v>
+      <c r="D18">
+        <f>B89</f>
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <f>D18-C18</f>
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" s="3">
-        <f>3*B19</f>
+      <c r="C19" s="2">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E19" t="s">
-        <v>68</v>
-      </c>
-      <c r="J19" t="s">
-        <v>59</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="D19">
+        <f>B87</f>
+        <v>20</v>
+      </c>
+      <c r="E19" s="2">
+        <f>D19-C19</f>
         <v>14</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" s="3">
-        <f>3*B20</f>
+      <c r="C20" s="2">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E20">
-        <v>470</v>
-      </c>
-      <c r="J20" t="s">
-        <v>59</v>
-      </c>
-      <c r="O20" t="s">
-        <v>14</v>
+      <c r="D20">
+        <f>B80</f>
+        <v>10</v>
+      </c>
+      <c r="E20" s="2">
+        <f>D20-C20</f>
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="3">
-        <f>3*B21</f>
+      <c r="C21" s="2">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E21" t="s">
-        <v>71</v>
-      </c>
-      <c r="J21" t="s">
-        <v>59</v>
-      </c>
-      <c r="O21" t="s">
-        <v>14</v>
+      <c r="D21">
+        <f>B88</f>
+        <v>10</v>
+      </c>
+      <c r="E21" s="2">
+        <f>D21-C21</f>
+        <v>7</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="3">
-        <f>3*B22</f>
+      <c r="C22" s="2">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E22" t="s">
-        <v>73</v>
-      </c>
-      <c r="J22" t="s">
-        <v>59</v>
-      </c>
-      <c r="O22" t="s">
-        <v>14</v>
+      <c r="D22">
+        <f>B82</f>
+        <v>10</v>
+      </c>
+      <c r="E22" s="2">
+        <f>D22-C22</f>
+        <v>7</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="3">
-        <f>3*B23</f>
+      <c r="C23" s="2">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
-      <c r="E23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="2">
+        <f>D23-C23</f>
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23">
         <v>1.47</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.62</v>
       </c>
-      <c r="H23" s="3">
-        <f>F23*D23</f>
+      <c r="I23" s="2">
+        <f>G23*D23</f>
         <v>5.8799999999999999</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J23" t="s">
-        <v>77</v>
-      </c>
-      <c r="O23" t="s">
-        <v>78</v>
+      <c r="J23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" t="s">
+        <v>81</v>
+      </c>
+      <c r="P23" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="3">
-        <f>3*B24</f>
+      <c r="C24" s="2">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E24" t="s">
-        <v>80</v>
-      </c>
-      <c r="J24" t="s">
-        <v>81</v>
-      </c>
-      <c r="O24" t="s">
-        <v>82</v>
+      <c r="E24" s="2">
+        <f>D24-C24</f>
+        <v>-3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" t="s">
+        <v>85</v>
+      </c>
+      <c r="P24" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25" s="3">
-        <f>3*B25</f>
+      <c r="C25" s="2">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D25">
         <v>10</v>
       </c>
-      <c r="E25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25">
+      <c r="E25" s="2">
+        <f>D25-C25</f>
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25">
         <v>3.2999999999999998</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1.8100000000000001</v>
       </c>
-      <c r="H25" s="3">
-        <f>F25*D25</f>
+      <c r="I25" s="2">
+        <f>G25*D25</f>
         <v>33</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="J25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K25" t="s">
         <v>85</v>
       </c>
-      <c r="J25" t="s">
-        <v>81</v>
-      </c>
-      <c r="O25" t="s">
-        <v>86</v>
+      <c r="P25" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" s="1"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="3">
+      <c r="A27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="2">
         <v>5</v>
       </c>
-      <c r="C27" s="3">
-        <f>3*B27</f>
-        <v>15</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3" t="s">
-        <v>14</v>
+      <c r="C27" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <f>B72</f>
+        <v>30</v>
+      </c>
+      <c r="E27" s="2">
+        <f>D27-C27</f>
+        <v>15</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="3">
+      <c r="A28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="2">
         <v>1</v>
       </c>
-      <c r="C28" s="3">
-        <f>3*B28</f>
+      <c r="C28" s="2">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J28" s="3" t="s">
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="2" t="e">
+        <f>D28-C28</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="2">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <f>E4</f>
         <v>91</v>
       </c>
-      <c r="K28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="A29" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="3">
-        <v>11</v>
-      </c>
-      <c r="C29" s="3">
-        <f>3*B29</f>
-        <v>33</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2">
+        <f>D29-C29</f>
+        <v>58</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="2">
+        <v>6</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <f>B67</f>
+        <v>30</v>
+      </c>
+      <c r="E30" s="2">
+        <f>D30-C30</f>
         <v>12</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="A30" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="3">
-        <v>6</v>
-      </c>
-      <c r="C30" s="3">
-        <f>3*B30</f>
-        <v>18</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3" t="s">
-        <v>14</v>
+      <c r="F30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="3">
+      <c r="A31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="2">
         <v>1</v>
       </c>
-      <c r="C31" s="3">
-        <f>3*B31</f>
+      <c r="C31" s="2">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D31">
         <v>4</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31">
+      <c r="E31" s="2">
+        <f>D31-C31</f>
+        <v>1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31">
         <v>0.35999999999999999</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.080000000000000002</v>
       </c>
-      <c r="H31" s="3">
-        <f>F31*D31</f>
+      <c r="I31" s="2">
+        <f>G31*D31</f>
         <v>1.4399999999999999</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3" t="s">
-        <v>99</v>
+      <c r="J31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="3">
+      <c r="A32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="2">
         <v>1</v>
       </c>
-      <c r="C32" s="3">
-        <f>3*B32</f>
+      <c r="C32" s="2">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F32">
+      <c r="E32" s="2">
+        <f>D32-C32</f>
+        <v>1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32">
         <v>0.17999999999999999</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.029000000000000001</v>
       </c>
-      <c r="H32" s="3">
-        <f>F32*D32</f>
+      <c r="I32" s="2">
+        <f>G32*D32</f>
         <v>0.71999999999999997</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3" t="s">
-        <v>103</v>
+      <c r="J32" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="3">
+      <c r="A33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="2">
         <v>5</v>
       </c>
-      <c r="C33" s="3">
-        <f>3*B33</f>
-        <v>15</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3" t="s">
-        <v>14</v>
+      <c r="C33" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="2" t="e">
+        <f>D33-C33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="3">
+      <c r="A34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="2">
         <v>3</v>
       </c>
-      <c r="C34" s="3">
-        <f>3*B34</f>
+      <c r="C34" s="2">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D34">
         <v>10</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34">
+      <c r="E34" s="2">
+        <f>D34-C34</f>
+        <v>1</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34">
         <v>0.16</v>
       </c>
-      <c r="G34" s="3">
+      <c r="H34" s="2">
         <v>0.029000000000000001</v>
       </c>
-      <c r="H34" s="3">
-        <f>F34*D34</f>
+      <c r="I34" s="2">
+        <f>G34*D34</f>
         <v>1.6000000000000001</v>
       </c>
-      <c r="I34" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3" t="s">
-        <v>110</v>
+      <c r="J34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="3">
+      <c r="A35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="2">
         <v>1</v>
       </c>
-      <c r="C35" s="3">
-        <f>3*B35</f>
+      <c r="C35" s="2">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>4</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F35" s="6">
+      <c r="E35" s="2">
+        <f>D35-C35</f>
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="2">
         <v>1.1899999999999999</v>
       </c>
-      <c r="G35" s="7">
+      <c r="H35" s="2">
         <v>0.90000000000000002</v>
       </c>
-      <c r="H35" s="3">
-        <f>F35*D35</f>
+      <c r="I35" s="2">
+        <f>G35*D35</f>
         <v>4.7599999999999998</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
+      <c r="J35" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B36" s="3">
+      <c r="A36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="2">
         <v>1</v>
       </c>
-      <c r="C36" s="3">
-        <f>3*B36</f>
+      <c r="C36" s="2">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D36">
         <v>4</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36">
+      <c r="E36" s="2">
+        <f>D36-C36</f>
+        <v>1</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36">
         <v>0.5</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.32000000000000001</v>
       </c>
-      <c r="H36" s="3">
-        <f>F36*D36</f>
+      <c r="I36" s="2">
+        <f>G36*D36</f>
         <v>2</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="K36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3" t="s">
-        <v>14</v>
+      <c r="J36" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" s="3">
+      <c r="A37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="2">
         <v>10</v>
       </c>
-      <c r="C37" s="3">
-        <f>3*B37</f>
+      <c r="C37" s="2">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="E37" s="3">
+      <c r="D37">
+        <f>B78</f>
+        <v>50</v>
+      </c>
+      <c r="E37" s="2">
+        <f>D37-C37</f>
+        <v>20</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <f>B84</f>
+        <v>30</v>
+      </c>
+      <c r="E38" s="2">
+        <f>D38-C38</f>
+        <v>27</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="2">
+        <v>3</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <f>B81</f>
+        <v>20</v>
+      </c>
+      <c r="E39" s="2">
+        <f>D39-C39</f>
+        <v>11</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <f>E17</f>
+        <v>18</v>
+      </c>
+      <c r="E40" s="2">
+        <f>D40-C40</f>
+        <v>15</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="2">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="A38" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B38" s="3">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3">
-        <f>3*B38</f>
-        <v>3</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="A39" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" s="3">
-        <v>3</v>
-      </c>
-      <c r="C39" s="3">
-        <f>3*B39</f>
-        <v>9</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="A40" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B40" s="3">
-        <v>1</v>
-      </c>
-      <c r="C40" s="3">
-        <f>3*B40</f>
-        <v>3</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25">
-      <c r="A41" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" s="3">
+      <c r="D41">
+        <f>B86</f>
+        <v>30</v>
+      </c>
+      <c r="E41" s="2">
+        <f>D41-C41</f>
+        <v>18</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="2">
         <v>4</v>
       </c>
-      <c r="C41" s="3">
-        <f>3*B41</f>
+      <c r="C42" s="2">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25">
-      <c r="A42" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" s="3">
-        <v>4</v>
-      </c>
-      <c r="C42" s="3">
-        <f>3*B42</f>
-        <v>12</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3" t="s">
-        <v>14</v>
+      <c r="D42">
+        <f>B85</f>
+        <v>30</v>
+      </c>
+      <c r="E42" s="2">
+        <f>D42-C42</f>
+        <v>18</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="43" ht="14.25">
-      <c r="A43" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B43" s="3">
+      <c r="A43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="2">
         <v>2</v>
       </c>
-      <c r="C43" s="3">
-        <f>3*B43</f>
+      <c r="C43" s="2">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D43">
         <v>10</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F43">
+      <c r="E43" s="2">
+        <f>D43-C43</f>
+        <v>4</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G43">
         <v>1.3899999999999999</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H43" s="3">
-        <f>F43*D43</f>
+      <c r="I43" s="2">
+        <f>G43*D43</f>
         <v>13.899999999999999</v>
       </c>
-      <c r="I43" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3" t="s">
-        <v>130</v>
+      <c r="J43" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="44" ht="14.25">
-      <c r="A44" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B44" s="3">
+      <c r="A44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="2">
         <v>2</v>
       </c>
-      <c r="C44" s="3">
-        <f>3*B44</f>
+      <c r="C44" s="2">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D44">
         <v>10</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F44">
+      <c r="E44" s="2">
+        <f>D44-C44</f>
+        <v>4</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44">
         <v>3.3700000000000001</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>1.8300000000000001</v>
       </c>
-      <c r="H44" s="3">
-        <f>F44*D44</f>
+      <c r="I44" s="2">
+        <f>G44*D44</f>
         <v>33.700000000000003</v>
       </c>
-      <c r="I44" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3" t="s">
-        <v>135</v>
+      <c r="J44" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="45" ht="14.25">
-      <c r="A45" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B45" s="3">
+      <c r="A45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="2">
         <v>1</v>
       </c>
-      <c r="C45" s="3">
-        <f>3*B45</f>
+      <c r="C45" s="2">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D45">
         <v>10</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F45">
+      <c r="E45" s="2">
+        <f>D45-C45</f>
+        <v>7</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G45">
         <v>4.4400000000000004</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>2.4199999999999999</v>
       </c>
-      <c r="H45" s="3">
-        <f>F45*D45</f>
+      <c r="I45" s="2">
+        <f>G45*D45</f>
         <v>44.400000000000006</v>
       </c>
-      <c r="I45" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3" t="s">
+      <c r="J45" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K45" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="L45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="46" ht="14.25">
-      <c r="A46" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B46" s="3">
+      <c r="A46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="2">
         <v>1</v>
       </c>
-      <c r="C46" s="3">
-        <f>3*B46</f>
+      <c r="C46" s="2">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D46">
         <v>4</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F46">
+      <c r="E46" s="2">
+        <f>D46-C46</f>
+        <v>1</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G46">
         <v>2.7599999999999998</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>2.1200000000000001</v>
       </c>
-      <c r="H46">
-        <f>F46*D46</f>
+      <c r="I46">
+        <f>G46*D46</f>
         <v>11.039999999999999</v>
       </c>
-      <c r="I46" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="K46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3" t="s">
-        <v>144</v>
+      <c r="J46" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="47" ht="14.25">
-      <c r="A47" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B47" s="3">
+      <c r="A47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="2">
         <v>1</v>
       </c>
-      <c r="C47" s="3">
-        <f>3*B47</f>
+      <c r="C47" s="2">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D47">
         <v>4</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F47">
+      <c r="E47" s="2">
+        <f>D47-C47</f>
+        <v>1</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G47">
         <v>0.93999999999999995</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>0.38</v>
       </c>
-      <c r="H47" s="3">
-        <f>F47*D47</f>
+      <c r="I47" s="2">
+        <f>G47*D47</f>
         <v>3.7599999999999998</v>
       </c>
-      <c r="I47" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3" t="s">
-        <v>149</v>
+      <c r="J47" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" s="1"/>
+      <c r="E48" s="2"/>
     </row>
     <row r="49" ht="14.25">
-      <c r="A49" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B49" s="3">
+      <c r="A49" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" s="2">
         <v>6</v>
       </c>
-      <c r="C49" s="3">
-        <f>3*B49</f>
+      <c r="C49" s="2">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="J49" s="3" t="s">
+      <c r="D49">
+        <f>B66</f>
+        <v>30</v>
+      </c>
+      <c r="E49" s="2">
+        <f>D49-C49</f>
+        <v>12</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <f>B69</f>
         <v>20</v>
       </c>
-      <c r="K49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3" t="s">
+      <c r="E50" s="2">
+        <f>D50-C50</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="50" ht="14.25">
-      <c r="A50" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B50" s="3">
+      <c r="F50" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="2">
         <v>2</v>
       </c>
-      <c r="C50" s="3">
-        <f>3*B50</f>
+      <c r="C51" s="2">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3" t="s">
+      <c r="D51">
+        <f>E27</f>
+        <v>15</v>
+      </c>
+      <c r="E51" s="2">
+        <f>D51-C51</f>
+        <v>9</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="A52" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="2">
+        <v>8</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D52">
+        <f>E29</f>
+        <v>58</v>
+      </c>
+      <c r="E52" s="2">
+        <f>D52-C52</f>
+        <v>34</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <f>B74</f>
+        <v>10</v>
+      </c>
+      <c r="E53" s="2">
+        <f>D53-C53</f>
+        <v>4</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K53" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" ht="14.25">
-      <c r="A51" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B51" s="3">
+      <c r="L53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="2">
         <v>2</v>
       </c>
-      <c r="C51" s="3">
-        <f>3*B51</f>
-        <v>6</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25">
-      <c r="A52" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B52" s="3">
-        <v>8</v>
-      </c>
-      <c r="C52" s="3">
-        <f>3*B52</f>
-        <v>24</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25">
-      <c r="A53" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B53" s="3">
-        <v>2</v>
-      </c>
-      <c r="C53" s="3">
-        <f>3*B53</f>
-        <v>6</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25">
-      <c r="A54" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B54" s="3">
-        <v>2</v>
-      </c>
-      <c r="C54" s="3">
-        <f>3*B54</f>
+      <c r="C54" s="2">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D54">
         <v>8</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F54">
+      <c r="E54" s="2">
+        <f>D54-C54</f>
+        <v>2</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G54">
         <v>0.73699999999999999</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H54">
-        <f>F54*D54</f>
+      <c r="I54">
+        <f>G54*D54</f>
         <v>5.8959999999999999</v>
       </c>
-      <c r="I54" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3" t="s">
-        <v>161</v>
+      <c r="J54" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="55" ht="14.25">
-      <c r="A55" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" s="3">
+      <c r="A55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B55" s="2">
         <v>5</v>
       </c>
-      <c r="C55" s="3">
-        <f>3*B55</f>
-        <v>15</v>
-      </c>
-      <c r="E55" s="3">
-        <v>51</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3" t="s">
-        <v>14</v>
+      <c r="C55" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D55">
+        <f>B79</f>
+        <v>30</v>
+      </c>
+      <c r="E55" s="2">
+        <f>D55-C55</f>
+        <v>15</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="56" ht="14.25">
-      <c r="A56" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B56" s="3">
+      <c r="A56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" s="2">
         <v>1</v>
       </c>
-      <c r="C56" s="3">
-        <f>3*B56</f>
+      <c r="C56" s="2">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3" t="s">
-        <v>14</v>
+      <c r="D56">
+        <f>E40</f>
+        <v>15</v>
+      </c>
+      <c r="E56" s="2">
+        <f>D56-C56</f>
+        <v>12</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="57" ht="14.25">
-      <c r="A57" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B57" s="3">
+      <c r="A57" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" s="2">
         <v>2</v>
       </c>
-      <c r="C57" s="3">
-        <f>3*B57</f>
+      <c r="C57" s="2">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3" t="s">
-        <v>14</v>
+      <c r="D57">
+        <f>E42</f>
+        <v>18</v>
+      </c>
+      <c r="E57" s="2">
+        <f>D57-C57</f>
+        <v>12</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="58" ht="14.25">
-      <c r="A58" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B58" s="3">
+      <c r="A58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="2">
         <v>2</v>
       </c>
-      <c r="C58" s="3">
-        <f>3*B58</f>
+      <c r="C58" s="2">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E58" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3" t="s">
-        <v>14</v>
+      <c r="D58">
+        <f>E16</f>
+        <v>18</v>
+      </c>
+      <c r="E58" s="2">
+        <f>D58-C58</f>
+        <v>12</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="59" ht="14.25">
-      <c r="A59" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B59" s="3">
+      <c r="A59" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="2">
         <v>1</v>
       </c>
-      <c r="C59" s="3">
-        <f>3*B59</f>
+      <c r="C59" s="2">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D59">
         <v>5</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F59">
+      <c r="E59" s="2">
+        <f>D59-C59</f>
+        <v>2</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G59">
         <v>0.87</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>0.29999999999999999</v>
       </c>
-      <c r="H59" s="3">
-        <f>F59*D59</f>
+      <c r="I59" s="2">
+        <f>G59*D59</f>
         <v>4.3499999999999996</v>
       </c>
-      <c r="I59" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3" t="s">
-        <v>170</v>
+      <c r="J59" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="60" ht="14.25">
-      <c r="A60" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B60" s="3">
+      <c r="A60" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" s="2">
         <v>2</v>
       </c>
-      <c r="C60" s="3">
-        <f>3*B60</f>
+      <c r="C60" s="2">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D60">
         <v>10</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F60">
+      <c r="E60" s="2">
+        <f>D60-C60</f>
+        <v>4</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G60">
         <v>2.1200000000000001</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>1.1599999999999999</v>
       </c>
-      <c r="H60">
-        <f>F60*D60</f>
+      <c r="I60">
+        <f>G60*D60</f>
         <v>21.200000000000003</v>
       </c>
-      <c r="I60" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="K60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3" t="s">
-        <v>175</v>
+      <c r="J60" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="L60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="61" ht="14.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
     </row>
     <row r="62" ht="14.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
     </row>
     <row r="63" ht="14.25"/>
-    <row r="64" ht="14.25"/>
+    <row r="64" ht="14.25">
+      <c r="A64" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
     <row r="65" ht="14.25"/>
-    <row r="66" ht="14.25"/>
-    <row r="67" ht="14.25"/>
-    <row r="68" ht="14.25"/>
+    <row r="66" ht="14.25">
+      <c r="A66" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66">
+        <v>30</v>
+      </c>
+      <c r="C66" t="s">
+        <v>183</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="A67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="2">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="A68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="2">
+        <v>20</v>
+      </c>
+      <c r="C68" t="s">
+        <v>185</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="A69" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69">
+        <v>20</v>
+      </c>
+      <c r="C69" t="s">
+        <v>186</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="A70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70">
+        <v>100</v>
+      </c>
+      <c r="C70" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="A71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="A72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72">
+        <v>30</v>
+      </c>
+      <c r="C72" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25">
+      <c r="A73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73">
+        <v>60</v>
+      </c>
+      <c r="C73" t="s">
+        <v>186</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="A74" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" s="2">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>183</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="A76" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76">
+        <v>30</v>
+      </c>
+      <c r="C76" t="s">
+        <v>184</v>
+      </c>
+      <c r="D76" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="A77" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B77">
+        <v>30</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D77" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25">
+      <c r="A78" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78">
+        <v>50</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D78" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25">
+      <c r="A79" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79">
+        <v>30</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D79" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="A80" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D80" t="s">
+        <v>191</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25">
+      <c r="A81" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81">
+        <v>20</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D81" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25">
+      <c r="A82" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D82" t="s">
+        <v>191</v>
+      </c>
+      <c r="E82" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25">
+      <c r="A83" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B83">
+        <v>30</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25">
+      <c r="A84" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84">
+        <v>30</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25">
+      <c r="A85" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85">
+        <v>30</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25">
+      <c r="A86" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B86">
+        <v>30</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25">
+      <c r="A87" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87">
+        <v>20</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25">
+      <c r="A88" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25">
+      <c r="A89" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25">
+      <c r="A91" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25">
+      <c r="A92" t="s">
+        <v>195</v>
+      </c>
+      <c r="B92">
+        <v>60</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25">
+      <c r="A93" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B93">
+        <v>20</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25">
+      <c r="A94" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B94">
+        <v>40</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25">
+      <c r="A95" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25">
+      <c r="A97" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97">
+        <v>40</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25">
+      <c r="A98" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98">
+        <v>20</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25"/>
+    <row r="100" ht="14.25">
+      <c r="A100" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100">
+        <v>20</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25">
+      <c r="A101" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B101">
+        <v>20</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25">
+      <c r="A102" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B102">
+        <v>20</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25">
+      <c r="A103" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B103">
+        <v>10</v>
+      </c>
+      <c r="C103">
+        <v>5</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I3"/>
-    <hyperlink r:id="rId2" ref="O3"/>
-    <hyperlink r:id="rId3" ref="I7"/>
-    <hyperlink r:id="rId4" ref="I8"/>
-    <hyperlink r:id="rId5" ref="I9"/>
-    <hyperlink r:id="rId6" ref="I10"/>
-    <hyperlink r:id="rId7" ref="I11"/>
-    <hyperlink r:id="rId8" ref="I12"/>
-    <hyperlink r:id="rId9" ref="I13"/>
-    <hyperlink r:id="rId10" ref="I23"/>
-    <hyperlink r:id="rId11" ref="I25"/>
-    <hyperlink r:id="rId12" ref="I31"/>
-    <hyperlink r:id="rId13" ref="I32"/>
-    <hyperlink r:id="rId14" ref="I34"/>
-    <hyperlink r:id="rId15" ref="I35"/>
-    <hyperlink r:id="rId16" ref="I36"/>
-    <hyperlink r:id="rId17" ref="I43"/>
-    <hyperlink r:id="rId18" ref="I44"/>
-    <hyperlink r:id="rId19" ref="I45"/>
-    <hyperlink r:id="rId20" ref="I46"/>
-    <hyperlink r:id="rId21" ref="I47"/>
-    <hyperlink r:id="rId22" ref="I54"/>
-    <hyperlink r:id="rId23" ref="I59"/>
-    <hyperlink r:id="rId24" ref="I60"/>
+    <hyperlink r:id="rId1" ref="J3"/>
+    <hyperlink r:id="rId2" ref="P3"/>
+    <hyperlink r:id="rId3" ref="J7"/>
+    <hyperlink r:id="rId4" ref="J8"/>
+    <hyperlink r:id="rId5" ref="J9"/>
+    <hyperlink r:id="rId6" ref="J10"/>
+    <hyperlink r:id="rId7" ref="J11"/>
+    <hyperlink r:id="rId8" ref="J12"/>
+    <hyperlink r:id="rId9" ref="J13"/>
+    <hyperlink r:id="rId10" ref="J23"/>
+    <hyperlink r:id="rId11" ref="J25"/>
+    <hyperlink r:id="rId12" ref="J31"/>
+    <hyperlink r:id="rId13" ref="J32"/>
+    <hyperlink r:id="rId14" ref="J34"/>
+    <hyperlink r:id="rId15" ref="J35"/>
+    <hyperlink r:id="rId16" ref="J36"/>
+    <hyperlink r:id="rId17" ref="J43"/>
+    <hyperlink r:id="rId18" ref="J44"/>
+    <hyperlink r:id="rId19" ref="J45"/>
+    <hyperlink r:id="rId20" ref="J46"/>
+    <hyperlink r:id="rId21" ref="J47"/>
+    <hyperlink r:id="rId22" ref="J54"/>
+    <hyperlink r:id="rId23" ref="J59"/>
+    <hyperlink r:id="rId24" ref="J60"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
